--- a/assets/Blank_MTWT_Template1.xlsx
+++ b/assets/Blank_MTWT_Template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CFE03B-F99D-4113-9FD4-AE4FBF2F2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F1B4D-B535-466B-A8FF-C765442D087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,18 +187,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -365,22 +353,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,108 +414,82 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,135 +892,135 @@
       <c r="A2" s="11">
         <v>0.1736111111111111</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="22"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>0.19791666666666671</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="32"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:18" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="19">
         <v>0.22222222222222221</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="32"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="1:18" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="19">
         <v>0.24652777777777779</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:18" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="19">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>0.2951388888888889</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="46" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="32"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Blank_MTWT_Template1.xlsx
+++ b/assets/Blank_MTWT_Template1.xlsx
@@ -539,7 +539,11 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Liam (3); Neil (8)</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -563,7 +567,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Paul (3); Tara (7)</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -587,7 +595,11 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Anqi (32); Riyansh (10)</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -611,7 +623,11 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Varun (13); Amyra (6)</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -635,7 +651,11 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hugh (7); Myra (9)</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -659,7 +679,11 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Hugh (7)</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>

--- a/assets/Blank_MTWT_Template1.xlsx
+++ b/assets/Blank_MTWT_Template1.xlsx
@@ -539,11 +539,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Liam (3); Neil (8)</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -567,11 +563,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Paul (3); Tara (7)</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -595,11 +587,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Anqi (32); Riyansh (10)</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -623,11 +611,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Varun (13); Amyra (6)</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -651,11 +635,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hugh (7); Myra (9)</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -679,11 +659,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Hugh (7)</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>

--- a/assets/Blank_MTWT_Template1.xlsx
+++ b/assets/Blank_MTWT_Template1.xlsx
@@ -529,7 +529,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4:10</t>
+          <t>8:35</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -553,7 +553,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4:45</t>
+          <t>9:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -577,7 +577,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>9:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5:55</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -625,7 +625,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -649,7 +649,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7:05</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
